--- a/pic/test/实验数据.xlsx
+++ b/pic/test/实验数据.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20363"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{450C52EA-6E7C-4773-BAE7-7F48C9D93585}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D003C7-2C7C-491A-9F75-E33CAF3564F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="28">
   <si>
     <t>图片</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,6 +102,26 @@
   </si>
   <si>
     <t>小孔2拟合度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拟合椭圆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RANSAC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3像素以内认定是完美匹配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.8/4.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -430,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -442,84 +462,64 @@
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G2" t="s">
         <v>17</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H2" t="s">
         <v>18</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I2" t="s">
         <v>19</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J2" t="s">
         <v>21</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>5.1314099999999998</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>5.08453</v>
       </c>
-      <c r="E2">
-        <v>290</v>
-      </c>
-      <c r="F2">
-        <v>650</v>
-      </c>
-      <c r="G2">
-        <v>200</v>
-      </c>
-      <c r="H2">
-        <v>29999</v>
-      </c>
-      <c r="I2">
-        <v>140</v>
-      </c>
-      <c r="J2">
-        <v>0.93181800000000004</v>
-      </c>
-      <c r="K2">
-        <v>0.94791700000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>5.0709299999999997</v>
-      </c>
-      <c r="C3">
-        <v>4.9435200000000004</v>
+      <c r="D3" t="s">
+        <v>26</v>
       </c>
       <c r="E3">
         <v>290</v>
@@ -537,62 +537,79 @@
         <v>140</v>
       </c>
       <c r="J3">
+        <v>0.93181800000000004</v>
+      </c>
+      <c r="K3">
+        <v>0.94791700000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>5.0709299999999997</v>
+      </c>
+      <c r="C4">
+        <v>4.9435200000000004</v>
+      </c>
+      <c r="E4">
+        <v>290</v>
+      </c>
+      <c r="F4">
+        <v>650</v>
+      </c>
+      <c r="G4">
+        <v>200</v>
+      </c>
+      <c r="H4">
+        <v>29999</v>
+      </c>
+      <c r="I4">
+        <v>140</v>
+      </c>
+      <c r="J4">
         <v>0.63333300000000003</v>
       </c>
-      <c r="K3">
+      <c r="K4">
         <v>0.86538499999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>5.1158900000000003</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>4.9075199999999999</v>
       </c>
-      <c r="E4">
-        <v>290</v>
-      </c>
-      <c r="F4">
-        <v>650</v>
-      </c>
-      <c r="G4">
-        <v>200</v>
-      </c>
-      <c r="H4">
-        <v>29999</v>
-      </c>
-      <c r="I4">
+      <c r="E5">
+        <v>290</v>
+      </c>
+      <c r="F5">
+        <v>650</v>
+      </c>
+      <c r="G5">
+        <v>200</v>
+      </c>
+      <c r="H5">
+        <v>29999</v>
+      </c>
+      <c r="I5">
         <v>135</v>
       </c>
-      <c r="J4">
+      <c r="J5">
         <v>0.96694199999999997</v>
       </c>
-      <c r="K4">
+      <c r="K5">
         <v>0.77173899999999995</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>20</v>
@@ -604,77 +621,64 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>20</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>4.9604400000000002</v>
       </c>
-      <c r="E7">
-        <v>290</v>
-      </c>
-      <c r="F7">
-        <v>650</v>
-      </c>
-      <c r="G7">
-        <v>200</v>
-      </c>
-      <c r="H7">
-        <v>29999</v>
-      </c>
-      <c r="I7">
+      <c r="E8">
+        <v>290</v>
+      </c>
+      <c r="F8">
+        <v>650</v>
+      </c>
+      <c r="G8">
+        <v>200</v>
+      </c>
+      <c r="H8">
+        <v>29999</v>
+      </c>
+      <c r="I8">
         <v>120</v>
       </c>
-      <c r="K7">
+      <c r="K8">
         <v>0.91880300000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>5.0059100000000001</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>4.9595500000000001</v>
-      </c>
-      <c r="E8">
-        <v>290</v>
-      </c>
-      <c r="F8">
-        <v>650</v>
-      </c>
-      <c r="G8">
-        <v>200</v>
-      </c>
-      <c r="H8">
-        <v>29999</v>
-      </c>
-      <c r="I8">
-        <v>135</v>
-      </c>
-      <c r="J8">
-        <v>0.875</v>
-      </c>
-      <c r="K8">
-        <v>0.94230800000000003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>5.1519500000000003</v>
-      </c>
-      <c r="C9">
-        <v>5.0010000000000003</v>
       </c>
       <c r="E9">
         <v>290</v>
@@ -692,112 +696,576 @@
         <v>135</v>
       </c>
       <c r="J9">
+        <v>0.875</v>
+      </c>
+      <c r="K9">
+        <v>0.94230800000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>5.1519500000000003</v>
+      </c>
+      <c r="C10">
+        <v>5.0010000000000003</v>
+      </c>
+      <c r="E10">
+        <v>290</v>
+      </c>
+      <c r="F10">
+        <v>650</v>
+      </c>
+      <c r="G10">
+        <v>200</v>
+      </c>
+      <c r="H10">
+        <v>29999</v>
+      </c>
+      <c r="I10">
+        <v>135</v>
+      </c>
+      <c r="J10">
         <v>0.72107399999999999</v>
       </c>
-      <c r="K9">
+      <c r="K10">
         <v>0.93644099999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>4.8900600000000001</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>4.9416900000000004</v>
       </c>
-      <c r="E10">
-        <v>290</v>
-      </c>
-      <c r="F10">
-        <v>650</v>
-      </c>
-      <c r="G10">
-        <v>200</v>
-      </c>
-      <c r="H10">
-        <v>29999</v>
-      </c>
-      <c r="I10">
+      <c r="E11">
+        <v>290</v>
+      </c>
+      <c r="F11">
+        <v>650</v>
+      </c>
+      <c r="G11">
+        <v>200</v>
+      </c>
+      <c r="H11">
+        <v>29999</v>
+      </c>
+      <c r="I11">
         <v>165</v>
       </c>
-      <c r="J10">
+      <c r="J11">
         <v>0.83913000000000004</v>
       </c>
-      <c r="K10">
+      <c r="K11">
         <v>0.97222200000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>4.9599099999999998</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>5.0050299999999996</v>
       </c>
-      <c r="E11">
-        <v>290</v>
-      </c>
-      <c r="F11">
-        <v>650</v>
-      </c>
-      <c r="G11">
-        <v>200</v>
-      </c>
-      <c r="H11">
-        <v>29999</v>
-      </c>
-      <c r="I11">
+      <c r="E12">
+        <v>290</v>
+      </c>
+      <c r="F12">
+        <v>650</v>
+      </c>
+      <c r="G12">
+        <v>200</v>
+      </c>
+      <c r="H12">
+        <v>29999</v>
+      </c>
+      <c r="I12">
         <v>145</v>
       </c>
-      <c r="J11">
+      <c r="J12">
         <v>0.91025599999999995</v>
       </c>
-      <c r="K11">
+      <c r="K12">
         <v>0.96398300000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>5.0463699999999996</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>5.0638500000000004</v>
       </c>
-      <c r="E12">
-        <v>290</v>
-      </c>
-      <c r="F12">
-        <v>650</v>
-      </c>
-      <c r="G12">
-        <v>200</v>
-      </c>
-      <c r="H12">
-        <v>29999</v>
-      </c>
-      <c r="I12">
+      <c r="E13">
+        <v>290</v>
+      </c>
+      <c r="F13">
+        <v>650</v>
+      </c>
+      <c r="G13">
+        <v>200</v>
+      </c>
+      <c r="H13">
+        <v>29999</v>
+      </c>
+      <c r="I13">
         <v>138</v>
       </c>
-      <c r="J12">
+      <c r="J13">
         <v>0.85805100000000001</v>
       </c>
-      <c r="K12">
+      <c r="K13">
         <v>0.97780299999999998</v>
       </c>
     </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>5.2192119999999997</v>
+      </c>
+      <c r="C16">
+        <v>5.1639049999999997</v>
+      </c>
+      <c r="E16">
+        <v>290</v>
+      </c>
+      <c r="F16">
+        <v>650</v>
+      </c>
+      <c r="G16">
+        <v>200</v>
+      </c>
+      <c r="H16">
+        <v>29999</v>
+      </c>
+      <c r="I16">
+        <v>140</v>
+      </c>
+      <c r="J16">
+        <v>0.94834700000000005</v>
+      </c>
+      <c r="K16">
+        <v>0.97082999999999997</v>
+      </c>
+      <c r="M16">
+        <f>B16/0.0303331/2</f>
+        <v>86.031628814727142</v>
+      </c>
+      <c r="N16">
+        <f>C16/0.0303331/2</f>
+        <v>85.119967955797449</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>5.2934700000000001</v>
+      </c>
+      <c r="C17">
+        <v>5.0517399999999997</v>
+      </c>
+      <c r="E17">
+        <v>290</v>
+      </c>
+      <c r="F17">
+        <v>650</v>
+      </c>
+      <c r="G17">
+        <v>200</v>
+      </c>
+      <c r="H17">
+        <v>29999</v>
+      </c>
+      <c r="I17">
+        <v>140</v>
+      </c>
+      <c r="J17">
+        <v>0.930894</v>
+      </c>
+      <c r="K17">
+        <v>0.88888900000000004</v>
+      </c>
+      <c r="M17">
+        <f t="shared" ref="M17:M26" si="0">B17/0.0303331/2</f>
+        <v>87.255671197470747</v>
+      </c>
+      <c r="N17">
+        <f t="shared" ref="N17:N26" si="1">C17/0.0303331/2</f>
+        <v>83.271080107209599</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>5.2205539999999999</v>
+      </c>
+      <c r="C18">
+        <v>5.0269469999999998</v>
+      </c>
+      <c r="E18">
+        <v>290</v>
+      </c>
+      <c r="F18">
+        <v>650</v>
+      </c>
+      <c r="G18">
+        <v>200</v>
+      </c>
+      <c r="H18">
+        <v>29999</v>
+      </c>
+      <c r="I18">
+        <v>135</v>
+      </c>
+      <c r="J18">
+        <v>0.96281000000000005</v>
+      </c>
+      <c r="K18">
+        <v>0.84565199999999996</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="0"/>
+        <v>86.05374986400993</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="1"/>
+        <v>82.862401139349416</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>5.1066700000000003</v>
+      </c>
+      <c r="E21">
+        <v>290</v>
+      </c>
+      <c r="F21">
+        <v>650</v>
+      </c>
+      <c r="G21">
+        <v>200</v>
+      </c>
+      <c r="H21">
+        <v>29999</v>
+      </c>
+      <c r="I21">
+        <v>120</v>
+      </c>
+      <c r="K21">
+        <v>0.96610200000000002</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="1"/>
+        <v>84.176526632622455</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22">
+        <v>5.1195130000000004</v>
+      </c>
+      <c r="C22">
+        <v>5.1146440000000002</v>
+      </c>
+      <c r="E22">
+        <v>290</v>
+      </c>
+      <c r="F22">
+        <v>650</v>
+      </c>
+      <c r="G22">
+        <v>200</v>
+      </c>
+      <c r="H22">
+        <v>29999</v>
+      </c>
+      <c r="I22">
+        <v>135</v>
+      </c>
+      <c r="J22">
+        <v>0.875</v>
+      </c>
+      <c r="K22">
+        <v>0.96610200000000002</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="0"/>
+        <v>84.388226063277415</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="1"/>
+        <v>84.307967204143324</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23">
+        <v>5.1597569999999999</v>
+      </c>
+      <c r="C23">
+        <v>5.1489200000000004</v>
+      </c>
+      <c r="E23">
+        <v>290</v>
+      </c>
+      <c r="F23">
+        <v>650</v>
+      </c>
+      <c r="G23">
+        <v>200</v>
+      </c>
+      <c r="H23">
+        <v>29999</v>
+      </c>
+      <c r="I23">
+        <v>135</v>
+      </c>
+      <c r="J23">
+        <v>0.875</v>
+      </c>
+      <c r="K23">
+        <v>0.95338999999999996</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="0"/>
+        <v>85.051593803468805</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="1"/>
+        <v>84.872960561235089</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>5.075825</v>
+      </c>
+      <c r="C24">
+        <v>5.0452300000000001</v>
+      </c>
+      <c r="E24">
+        <v>290</v>
+      </c>
+      <c r="F24">
+        <v>650</v>
+      </c>
+      <c r="G24">
+        <v>200</v>
+      </c>
+      <c r="H24">
+        <v>29999</v>
+      </c>
+      <c r="I24">
+        <v>165</v>
+      </c>
+      <c r="J24">
+        <v>0.85683799999999999</v>
+      </c>
+      <c r="K24">
+        <v>0.95940199999999998</v>
+      </c>
+      <c r="L24" t="s">
+        <v>27</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="0"/>
+        <v>83.668088655627017</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="1"/>
+        <v>83.163771589451784</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25">
+        <v>5.1316199999999998</v>
+      </c>
+      <c r="C25">
+        <v>5.1267269999999998</v>
+      </c>
+      <c r="E25">
+        <v>290</v>
+      </c>
+      <c r="F25">
+        <v>650</v>
+      </c>
+      <c r="G25">
+        <v>200</v>
+      </c>
+      <c r="H25">
+        <v>29999</v>
+      </c>
+      <c r="I25">
+        <v>145</v>
+      </c>
+      <c r="J25">
+        <v>0.93855900000000003</v>
+      </c>
+      <c r="K25">
+        <v>0.96398300000000003</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="0"/>
+        <v>84.587793532477718</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="1"/>
+        <v>84.507139065904894</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26">
+        <v>5.1698389999999996</v>
+      </c>
+      <c r="C26">
+        <v>5.1678009999999999</v>
+      </c>
+      <c r="E26">
+        <v>290</v>
+      </c>
+      <c r="F26">
+        <v>650</v>
+      </c>
+      <c r="G26">
+        <v>200</v>
+      </c>
+      <c r="H26">
+        <v>29999</v>
+      </c>
+      <c r="I26">
+        <v>138</v>
+      </c>
+      <c r="J26">
+        <v>0.93125000000000002</v>
+      </c>
+      <c r="K26">
+        <v>0.95833299999999999</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="0"/>
+        <v>85.217781895025553</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="1"/>
+        <v>85.184188230019345</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B6:I6"/>
+  <mergeCells count="4">
+    <mergeCell ref="B20:K20"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="B19:K19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pic/test/实验数据.xlsx
+++ b/pic/test/实验数据.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20363"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D003C7-2C7C-491A-9F75-E33CAF3564F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11DF8B83-D6B2-4EB2-962C-194F1C96C7EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -450,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -465,12 +465,12 @@
     <col min="12" max="12" width="24.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -508,7 +508,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -543,7 +543,7 @@
         <v>0.94791700000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -575,7 +575,7 @@
         <v>0.86538499999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -607,7 +607,7 @@
         <v>0.77173899999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -624,7 +624,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -641,7 +641,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -670,7 +670,7 @@
         <v>0.91880300000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -702,7 +702,7 @@
         <v>0.94230800000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -734,7 +734,7 @@
         <v>0.93644099999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -766,7 +766,7 @@
         <v>0.97222200000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -798,7 +798,7 @@
         <v>0.96398300000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -830,12 +830,12 @@
         <v>0.97780299999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -870,7 +870,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -909,8 +909,12 @@
         <f>C16/0.0303331/2</f>
         <v>85.119967955797449</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O16">
+        <f>M16*0.0306012*2</f>
+        <v>5.2653421593704559</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -949,8 +953,12 @@
         <f t="shared" ref="N17:N26" si="1">C17/0.0303331/2</f>
         <v>83.271080107209599</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O17">
+        <f t="shared" ref="O17:O26" si="2">M17*0.0306012*2</f>
+        <v>5.340256490896083</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -989,8 +997,12 @@
         <f t="shared" si="1"/>
         <v>82.862401139349416</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O18">
+        <f t="shared" si="2"/>
+        <v>5.266696020677081</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -1006,8 +1018,12 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1023,8 +1039,12 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -1056,8 +1076,12 @@
         <f t="shared" si="1"/>
         <v>84.176526632622455</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -1096,8 +1120,12 @@
         <f t="shared" si="1"/>
         <v>84.307967204143324</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O22">
+        <f t="shared" si="2"/>
+        <v>5.1647619668151297</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1136,8 +1164,12 @@
         <f t="shared" si="1"/>
         <v>84.872960561235089</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O23">
+        <f t="shared" si="2"/>
+        <v>5.2053616645974188</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -1179,8 +1211,12 @@
         <f t="shared" si="1"/>
         <v>83.163771589451784</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O24">
+        <f t="shared" si="2"/>
+        <v>5.1206878291371467</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -1219,8 +1255,12 @@
         <f t="shared" si="1"/>
         <v>84.507139065904894</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O25">
+        <f t="shared" si="2"/>
+        <v>5.1769759748921143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -1258,6 +1298,10 @@
       <c r="N26">
         <f t="shared" si="1"/>
         <v>85.184188230019345</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="2"/>
+        <v>5.2155327746521118</v>
       </c>
     </row>
   </sheetData>

--- a/pic/test/实验数据.xlsx
+++ b/pic/test/实验数据.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20363"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11DF8B83-D6B2-4EB2-962C-194F1C96C7EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA3794D-937F-4100-AAC8-1B9E2F09F0FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="32">
   <si>
     <t>图片</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -122,6 +122,22 @@
   </si>
   <si>
     <t xml:space="preserve">  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小孔1像素数目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小孔2像素数目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小孔1新距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小孔2新距离</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -450,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -463,14 +479,16 @@
     <col min="10" max="10" width="12.125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -508,7 +526,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -543,7 +561,7 @@
         <v>0.94791700000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -575,7 +593,7 @@
         <v>0.86538499999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -607,7 +625,7 @@
         <v>0.77173899999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -624,7 +642,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -641,7 +659,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -670,7 +688,7 @@
         <v>0.91880300000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -702,7 +720,7 @@
         <v>0.94230800000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -734,7 +752,7 @@
         <v>0.93644099999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -766,7 +784,7 @@
         <v>0.97222200000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -798,7 +816,7 @@
         <v>0.96398300000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -830,12 +848,12 @@
         <v>0.97780299999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -869,8 +887,20 @@
       <c r="K15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M15" t="s">
+        <v>28</v>
+      </c>
+      <c r="N15" t="s">
+        <v>29</v>
+      </c>
+      <c r="O15" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -910,11 +940,15 @@
         <v>85.119967955797449</v>
       </c>
       <c r="O16">
-        <f>M16*0.0306012*2</f>
-        <v>5.2653421593704559</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+        <f>M16*0.0257072*2</f>
+        <v>4.4232645765319072</v>
+      </c>
+      <c r="P16">
+        <f>N16*0.0257072*2</f>
+        <v>4.3763920804665526</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -954,11 +988,15 @@
         <v>83.271080107209599</v>
       </c>
       <c r="O17">
-        <f t="shared" ref="O17:O26" si="2">M17*0.0306012*2</f>
-        <v>5.340256490896083</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" ref="O17:O26" si="2">M17*0.0257072*2</f>
+        <v>4.4861979812152395</v>
+      </c>
+      <c r="P17">
+        <f t="shared" ref="P17:P26" si="3">N17*0.0257072*2</f>
+        <v>4.2813326210641174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -999,10 +1037,14 @@
       </c>
       <c r="O18">
         <f t="shared" si="2"/>
-        <v>5.266696020677081</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+        <v>4.4244019170081517</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="3"/>
+        <v>4.2603206371389666</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -1022,8 +1064,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1043,8 +1089,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -1080,8 +1130,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P21">
+        <f t="shared" si="3"/>
+        <v>4.3278856109003039</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -1122,10 +1176,14 @@
       </c>
       <c r="O22">
         <f t="shared" si="2"/>
-        <v>5.1647619668151297</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+        <v>4.33877001010777</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="3"/>
+        <v>4.334643549020706</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1166,10 +1224,14 @@
       </c>
       <c r="O23">
         <f t="shared" si="2"/>
-        <v>5.2053616645974188</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+        <v>4.3728766644490662</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="3"/>
+        <v>4.3636923434795651</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -1213,10 +1275,14 @@
       </c>
       <c r="O24">
         <f t="shared" si="2"/>
-        <v>5.1206878291371467</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+        <v>4.30174457737587</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="3"/>
+        <v>4.27581541800871</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -1257,10 +1323,14 @@
       </c>
       <c r="O25">
         <f t="shared" si="2"/>
-        <v>5.1769759748921143</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+        <v>4.3490306517962223</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="3"/>
+        <v>4.3448838507900609</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -1301,7 +1371,11 @@
       </c>
       <c r="O26">
         <f t="shared" si="2"/>
-        <v>5.2155327746521118</v>
+        <v>4.3814211254636017</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="3"/>
+        <v>4.3796939273335065</v>
       </c>
     </row>
   </sheetData>

--- a/pic/test/实验数据.xlsx
+++ b/pic/test/实验数据.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20363"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA3794D-937F-4100-AAC8-1B9E2F09F0FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A041693-5DB0-48F3-8172-09F8186DBC3A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="34">
   <si>
     <t>图片</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -138,6 +138,14 @@
   </si>
   <si>
     <t>小孔2新距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚像素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>边缘提取阈值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -466,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1378,8 +1386,283 @@
         <v>4.3796939273335065</v>
       </c>
     </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J28" t="s">
+        <v>33</v>
+      </c>
+      <c r="K28" t="s">
+        <v>28</v>
+      </c>
+      <c r="L28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>4.4346699999999997</v>
+      </c>
+      <c r="C29">
+        <v>4.17422</v>
+      </c>
+      <c r="E29">
+        <v>290</v>
+      </c>
+      <c r="F29">
+        <v>650</v>
+      </c>
+      <c r="G29">
+        <v>200</v>
+      </c>
+      <c r="H29">
+        <v>29999</v>
+      </c>
+      <c r="I29">
+        <v>140</v>
+      </c>
+      <c r="J29">
+        <v>0.8</v>
+      </c>
+      <c r="K29">
+        <v>172.50700000000001</v>
+      </c>
+      <c r="L29">
+        <v>162.376</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>290</v>
+      </c>
+      <c r="F30">
+        <v>650</v>
+      </c>
+      <c r="G30">
+        <v>200</v>
+      </c>
+      <c r="H30">
+        <v>29999</v>
+      </c>
+      <c r="I30">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>290</v>
+      </c>
+      <c r="F31">
+        <v>650</v>
+      </c>
+      <c r="G31">
+        <v>200</v>
+      </c>
+      <c r="H31">
+        <v>29999</v>
+      </c>
+      <c r="I31">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34">
+        <v>290</v>
+      </c>
+      <c r="F34">
+        <v>650</v>
+      </c>
+      <c r="G34">
+        <v>200</v>
+      </c>
+      <c r="H34">
+        <v>29999</v>
+      </c>
+      <c r="I34">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35">
+        <v>290</v>
+      </c>
+      <c r="F35">
+        <v>650</v>
+      </c>
+      <c r="G35">
+        <v>200</v>
+      </c>
+      <c r="H35">
+        <v>29999</v>
+      </c>
+      <c r="I35">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36">
+        <v>290</v>
+      </c>
+      <c r="F36">
+        <v>650</v>
+      </c>
+      <c r="G36">
+        <v>200</v>
+      </c>
+      <c r="H36">
+        <v>29999</v>
+      </c>
+      <c r="I36">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37">
+        <v>290</v>
+      </c>
+      <c r="F37">
+        <v>650</v>
+      </c>
+      <c r="G37">
+        <v>200</v>
+      </c>
+      <c r="H37">
+        <v>29999</v>
+      </c>
+      <c r="I37">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38">
+        <v>290</v>
+      </c>
+      <c r="F38">
+        <v>650</v>
+      </c>
+      <c r="G38">
+        <v>200</v>
+      </c>
+      <c r="H38">
+        <v>29999</v>
+      </c>
+      <c r="I38">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39">
+        <v>290</v>
+      </c>
+      <c r="F39">
+        <v>650</v>
+      </c>
+      <c r="G39">
+        <v>200</v>
+      </c>
+      <c r="H39">
+        <v>29999</v>
+      </c>
+      <c r="I39">
+        <v>138</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="B32:J32"/>
+    <mergeCell ref="B33:J33"/>
     <mergeCell ref="B20:K20"/>
     <mergeCell ref="B6:K6"/>
     <mergeCell ref="B7:K7"/>

--- a/pic/test/实验数据.xlsx
+++ b/pic/test/实验数据.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20363"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A041693-5DB0-48F3-8172-09F8186DBC3A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4676CA-5523-4166-BFC2-60C5EFF06E79}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="36">
   <si>
     <t>图片</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -145,7 +145,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>边缘提取阈值</t>
+    <t>p40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">         </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -189,8 +197,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -474,17 +483,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P39"/>
+  <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="3" width="14.125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="24.5" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="14.125" bestFit="1" customWidth="1"/>
@@ -637,35 +646,35 @@
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -1056,18 +1065,18 @@
       <c r="A19" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
       <c r="O19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1081,18 +1090,18 @@
       <c r="A20" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
       <c r="O20">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1420,249 +1429,198 @@
         <v>19</v>
       </c>
       <c r="J28" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="K28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L28" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29">
+        <v>4.1720899999999999</v>
+      </c>
+      <c r="C29">
+        <v>4.1851099999999999</v>
+      </c>
+      <c r="E29">
+        <v>290</v>
+      </c>
+      <c r="F29">
+        <v>650</v>
+      </c>
+      <c r="G29">
+        <v>200</v>
+      </c>
+      <c r="H29">
+        <v>29999</v>
+      </c>
+      <c r="I29">
+        <v>115</v>
+      </c>
+      <c r="J29">
+        <v>147.512</v>
+      </c>
+      <c r="K29">
+        <v>147.97300000000001</v>
+      </c>
+      <c r="L29">
+        <v>2.8282999999999999E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>1</v>
       </c>
-      <c r="B29">
-        <v>4.4346699999999997</v>
-      </c>
-      <c r="C29">
-        <v>4.17422</v>
-      </c>
-      <c r="E29">
-        <v>290</v>
-      </c>
-      <c r="F29">
-        <v>650</v>
-      </c>
-      <c r="G29">
-        <v>200</v>
-      </c>
-      <c r="H29">
-        <v>29999</v>
-      </c>
-      <c r="I29">
-        <v>140</v>
-      </c>
-      <c r="J29">
-        <v>0.8</v>
-      </c>
-      <c r="K29">
-        <v>172.50700000000001</v>
-      </c>
-      <c r="L29">
-        <v>162.376</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="B30">
+        <v>4.1820279999999999</v>
+      </c>
+      <c r="C30">
+        <v>4.2140510000000004</v>
+      </c>
+      <c r="E30">
+        <v>290</v>
+      </c>
+      <c r="F30">
+        <v>650</v>
+      </c>
+      <c r="G30">
+        <v>200</v>
+      </c>
+      <c r="H30">
+        <v>29999</v>
+      </c>
+      <c r="I30">
+        <v>115</v>
+      </c>
+      <c r="J30">
+        <v>147.846</v>
+      </c>
+      <c r="K30">
+        <v>148.99600000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>2</v>
       </c>
-      <c r="E30">
-        <v>290</v>
-      </c>
-      <c r="F30">
-        <v>650</v>
-      </c>
-      <c r="G30">
-        <v>200</v>
-      </c>
-      <c r="H30">
-        <v>29999</v>
-      </c>
-      <c r="I30">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="B31">
+        <v>4.2137399999999996</v>
+      </c>
+      <c r="C31">
+        <v>4.1887100000000004</v>
+      </c>
+      <c r="E31">
+        <v>290</v>
+      </c>
+      <c r="F31">
+        <v>650</v>
+      </c>
+      <c r="G31">
+        <v>200</v>
+      </c>
+      <c r="H31">
+        <v>29999</v>
+      </c>
+      <c r="I31">
+        <v>115</v>
+      </c>
+      <c r="J31">
+        <v>148.98500000000001</v>
+      </c>
+      <c r="K31">
+        <v>148.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32">
         <v>3</v>
       </c>
-      <c r="E31">
-        <v>290</v>
-      </c>
-      <c r="F31">
-        <v>650</v>
-      </c>
-      <c r="G31">
-        <v>200</v>
-      </c>
-      <c r="H31">
-        <v>29999</v>
-      </c>
-      <c r="I31">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C33" s="1"/>
+      <c r="E32">
+        <v>290</v>
+      </c>
+      <c r="F32">
+        <v>650</v>
+      </c>
+      <c r="G32">
+        <v>200</v>
+      </c>
+      <c r="H32">
+        <v>29999</v>
+      </c>
+      <c r="I32">
+        <v>115</v>
+      </c>
+      <c r="J32" s="1">
+        <v>145.477</v>
+      </c>
+      <c r="K32" s="1">
+        <v>139.97499999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33" s="1">
+        <v>4.1162700000000001</v>
+      </c>
+      <c r="C33" s="1">
+        <v>4.1917900000000001</v>
+      </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="J33" s="1">
+        <v>145.53899999999999</v>
+      </c>
+      <c r="K33" s="1">
+        <v>148.209</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>5</v>
+      </c>
+      <c r="B34" s="1">
+        <v>4.2236599999999997</v>
+      </c>
+      <c r="C34" s="1">
+        <v>4.1654200000000001</v>
+      </c>
+      <c r="J34" s="1">
+        <v>149.33500000000001</v>
+      </c>
+      <c r="K34" s="1">
+        <v>147.27699999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35">
         <v>6</v>
       </c>
-      <c r="B34" t="s">
-        <v>20</v>
-      </c>
-      <c r="E34">
-        <v>290</v>
-      </c>
-      <c r="F34">
-        <v>650</v>
-      </c>
-      <c r="G34">
-        <v>200</v>
-      </c>
-      <c r="H34">
-        <v>29999</v>
-      </c>
-      <c r="I34">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36">
         <v>7</v>
       </c>
-      <c r="E35">
-        <v>290</v>
-      </c>
-      <c r="F35">
-        <v>650</v>
-      </c>
-      <c r="G35">
-        <v>200</v>
-      </c>
-      <c r="H35">
-        <v>29999</v>
-      </c>
-      <c r="I35">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36">
-        <v>290</v>
-      </c>
-      <c r="F36">
-        <v>650</v>
-      </c>
-      <c r="G36">
-        <v>200</v>
-      </c>
-      <c r="H36">
-        <v>29999</v>
-      </c>
-      <c r="I36">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37">
-        <v>290</v>
-      </c>
-      <c r="F37">
-        <v>650</v>
-      </c>
-      <c r="G37">
-        <v>200</v>
-      </c>
-      <c r="H37">
-        <v>29999</v>
-      </c>
-      <c r="I37">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38">
-        <v>290</v>
-      </c>
-      <c r="F38">
-        <v>650</v>
-      </c>
-      <c r="G38">
-        <v>200</v>
-      </c>
-      <c r="H38">
-        <v>29999</v>
-      </c>
-      <c r="I38">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39">
-        <v>290</v>
-      </c>
-      <c r="F39">
-        <v>650</v>
-      </c>
-      <c r="G39">
-        <v>200</v>
-      </c>
-      <c r="H39">
-        <v>29999</v>
-      </c>
-      <c r="I39">
-        <v>138</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B32:J32"/>
-    <mergeCell ref="B33:J33"/>
+  <mergeCells count="4">
     <mergeCell ref="B20:K20"/>
     <mergeCell ref="B6:K6"/>
     <mergeCell ref="B7:K7"/>

--- a/pic/test/实验数据.xlsx
+++ b/pic/test/实验数据.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20363"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20364"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4676CA-5523-4166-BFC2-60C5EFF06E79}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C99525E9-A64B-45CE-B75A-C5D10C489F7B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="41">
   <si>
     <t>图片</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -154,6 +154,26 @@
   </si>
   <si>
     <t xml:space="preserve">         </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显微镜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法测量值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显微镜测量值/拟合圆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显微镜测量值/直线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>误差</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -161,6 +181,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.000%"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -197,12 +220,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -483,15 +507,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P36"/>
+  <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
@@ -1619,6 +1645,82 @@
         <v>7</v>
       </c>
     </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>4.3009320000000004</v>
+      </c>
+      <c r="C39">
+        <f>2.151*2</f>
+        <v>4.3019999999999996</v>
+      </c>
+      <c r="D39">
+        <v>4.2990000000000004</v>
+      </c>
+      <c r="E39" s="3">
+        <f>ABS(B39-(C39+D39)/2)/((C39+D39)/2)</f>
+        <v>1.0045343564722153E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>2</v>
+      </c>
+      <c r="B40">
+        <v>3.4835769999999999</v>
+      </c>
+      <c r="C40">
+        <f>1.752*2</f>
+        <v>3.504</v>
+      </c>
+      <c r="D40">
+        <v>3.4889999999999999</v>
+      </c>
+      <c r="E40" s="3">
+        <f>ABS(B40-(C40+D40)/2)/((C40+D40)/2)</f>
+        <v>3.6959816959817645E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>3</v>
+      </c>
+      <c r="B41">
+        <v>3.5006539999999999</v>
+      </c>
+      <c r="C41">
+        <f>1.751*2</f>
+        <v>3.5019999999999998</v>
+      </c>
+      <c r="D41">
+        <v>3.5049999999999999</v>
+      </c>
+      <c r="E41" s="3">
+        <f>ABS(B41-(C41+D41)/2)/((C41+D41)/2)</f>
+        <v>8.1233052661621363E-4</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B20:K20"/>

--- a/pic/test/实验数据.xlsx
+++ b/pic/test/实验数据.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20364"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C99525E9-A64B-45CE-B75A-C5D10C489F7B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A35274-6C69-4E4F-B9D6-2089D2E21962}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="54">
   <si>
     <t>图片</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -174,6 +175,58 @@
   </si>
   <si>
     <t>误差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小孔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法测量像素数目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标定结果mm/pixel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显微镜测量值/直线/mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显微镜测量值/拟合圆/mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法测量值/mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26垂直</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选取图片数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26平行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>89垂直</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32垂直</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>误差毫米数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -220,13 +273,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -509,8 +571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B38" sqref="B38:E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -672,35 +734,35 @@
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -1091,18 +1153,18 @@
       <c r="A19" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
       <c r="O19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1116,18 +1178,18 @@
       <c r="A20" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
       <c r="O20">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1678,7 +1740,7 @@
       <c r="D39">
         <v>4.2990000000000004</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="2">
         <f>ABS(B39-(C39+D39)/2)/((C39+D39)/2)</f>
         <v>1.0045343564722153E-4</v>
       </c>
@@ -1697,7 +1759,7 @@
       <c r="D40">
         <v>3.4889999999999999</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40" s="2">
         <f>ABS(B40-(C40+D40)/2)/((C40+D40)/2)</f>
         <v>3.6959816959817645E-3</v>
       </c>
@@ -1716,7 +1778,7 @@
       <c r="D41">
         <v>3.5049999999999999</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="2">
         <f>ABS(B41-(C41+D41)/2)/((C41+D41)/2)</f>
         <v>8.1233052661621363E-4</v>
       </c>
@@ -1732,4 +1794,744 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17D99E07-5EBB-4816-8069-D1B9D986B7B7}">
+  <dimension ref="A1:K24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:K21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>100</v>
+      </c>
+      <c r="D2" s="4">
+        <v>3.4937100000000001</v>
+      </c>
+      <c r="E2" s="4">
+        <f>362.177*2</f>
+        <v>724.35400000000004</v>
+      </c>
+      <c r="F2" s="5">
+        <f>1.751*2</f>
+        <v>3.5019999999999998</v>
+      </c>
+      <c r="G2" s="5">
+        <v>3.5049999999999999</v>
+      </c>
+      <c r="H2" s="6">
+        <f>ABS(D2-((F2+G2)/2))/((F2+G2)/2)</f>
+        <v>2.7943485086341499E-3</v>
+      </c>
+      <c r="I2" s="4">
+        <f>H2*((F2+G2)/2)/2</f>
+        <v>4.8949999999998717E-3</v>
+      </c>
+      <c r="J2" s="5">
+        <v>4.8232099999999997E-3</v>
+      </c>
+      <c r="K2" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="5"/>
+      <c r="B3" s="4">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4">
+        <v>100</v>
+      </c>
+      <c r="D3" s="4">
+        <v>3.4931399999999999</v>
+      </c>
+      <c r="E3" s="4">
+        <f>362.118*2</f>
+        <v>724.23599999999999</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6">
+        <f>ABS(D3-((F2+G2)/2))/((F2+G2)/2)</f>
+        <v>2.9570429570429358E-3</v>
+      </c>
+      <c r="I3" s="4">
+        <f>H3*((F2+G2)/2)/2</f>
+        <v>5.1799999999999624E-3</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="B4" s="4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4">
+        <v>100</v>
+      </c>
+      <c r="D4" s="4">
+        <v>3.5057100000000001</v>
+      </c>
+      <c r="E4" s="4">
+        <f>363.421*2</f>
+        <v>726.84199999999998</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6">
+        <f>ABS(D4-((F2+G2)/2))/((F2+G2)/2)</f>
+        <v>6.3079777365499282E-4</v>
+      </c>
+      <c r="I4" s="4">
+        <f>H4*((F2+G2)/2)/2</f>
+        <v>1.1050000000001337E-3</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="5"/>
+      <c r="B5" s="4">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4">
+        <v>100</v>
+      </c>
+      <c r="D5" s="4">
+        <v>3.4962800000000001</v>
+      </c>
+      <c r="E5" s="4">
+        <f>362.443*2</f>
+        <v>724.88599999999997</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="6">
+        <f>ABS(D5-((F2+G2)/2))/((F2+G2)/2)</f>
+        <v>2.06079634651057E-3</v>
+      </c>
+      <c r="I5" s="4">
+        <f>H5*((F2+G2)/2)/2</f>
+        <v>3.6099999999998906E-3</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
+      <c r="B6" s="4">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4">
+        <v>90</v>
+      </c>
+      <c r="D6" s="4">
+        <v>3.50169</v>
+      </c>
+      <c r="E6" s="4">
+        <f>363.004*2</f>
+        <v>726.00800000000004</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6">
+        <f>ABS(D6-((F2+G2)/2))/((F2+G2)/2)</f>
+        <v>5.1662623091190739E-4</v>
+      </c>
+      <c r="I6" s="4">
+        <f>H6*((F2+G2)/2)/2</f>
+        <v>9.0499999999993374E-4</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4">
+        <v>90</v>
+      </c>
+      <c r="D7" s="4">
+        <v>3.5087100000000002</v>
+      </c>
+      <c r="E7" s="4">
+        <f>363.732*2</f>
+        <v>727.46400000000006</v>
+      </c>
+      <c r="F7" s="5">
+        <f>1.752*2</f>
+        <v>3.504</v>
+      </c>
+      <c r="G7" s="5">
+        <v>3.4889999999999999</v>
+      </c>
+      <c r="H7" s="6">
+        <f>ABS(D7-((F7+G7)/2))/((F7+G7)/2)</f>
+        <v>3.4920634920635072E-3</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" ref="I3:I21" si="0">H7*((F7+G7)/2)/2</f>
+        <v>6.1050000000000271E-3</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" s="4">
+        <v>2</v>
+      </c>
+      <c r="C8" s="4">
+        <v>90</v>
+      </c>
+      <c r="D8" s="4">
+        <v>3.5020899999999999</v>
+      </c>
+      <c r="E8" s="4">
+        <f>363.064*2</f>
+        <v>726.12800000000004</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="6">
+        <f>ABS(D8-((F7+G7)/2))/((F7+G7)/2)</f>
+        <v>1.5987415987415306E-3</v>
+      </c>
+      <c r="I8" s="4">
+        <f>H8*((F7+G7)/2)/2</f>
+        <v>2.7949999999998809E-3</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="4">
+        <v>3</v>
+      </c>
+      <c r="C9" s="4">
+        <v>90</v>
+      </c>
+      <c r="D9" s="4">
+        <v>3.5027900000000001</v>
+      </c>
+      <c r="E9" s="4">
+        <f>363.118*2</f>
+        <v>726.23599999999999</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="6">
+        <f>ABS(D9-((F7+G7)/2))/((F7+G7)/2)</f>
+        <v>1.7989417989417722E-3</v>
+      </c>
+      <c r="I9" s="4">
+        <f>H9*((F7+G7)/2)/2</f>
+        <v>3.1449999999999534E-3</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" s="4">
+        <v>4</v>
+      </c>
+      <c r="C10" s="4">
+        <v>90</v>
+      </c>
+      <c r="D10" s="4">
+        <v>3.504</v>
+      </c>
+      <c r="E10" s="4">
+        <f>363.243*2</f>
+        <v>726.48599999999999</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="6">
+        <f>ABS(D10-((F7+G7)/2))/((F7+G7)/2)</f>
+        <v>2.1450021450020993E-3</v>
+      </c>
+      <c r="I10" s="4">
+        <f>H10*((F7+G7)/2)/2</f>
+        <v>3.7499999999999205E-3</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+      <c r="B11" s="4">
+        <v>5</v>
+      </c>
+      <c r="C11" s="4">
+        <v>90</v>
+      </c>
+      <c r="D11" s="4">
+        <v>3.4996</v>
+      </c>
+      <c r="E11" s="4">
+        <f>362.778*2</f>
+        <v>725.55600000000004</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="6">
+        <f>ABS(D11-((F7+G7)/2))/((F7+G7)/2)</f>
+        <v>8.8660088660085239E-4</v>
+      </c>
+      <c r="I11" s="4">
+        <f>H11*((F7+G7)/2)/2</f>
+        <v>1.5499999999999403E-3</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4">
+        <v>70</v>
+      </c>
+      <c r="D12" s="4">
+        <v>4.3067299999999999</v>
+      </c>
+      <c r="E12" s="4">
+        <f>446.459*2</f>
+        <v>892.91800000000001</v>
+      </c>
+      <c r="F12" s="5">
+        <f>2.154*2</f>
+        <v>4.3079999999999998</v>
+      </c>
+      <c r="G12" s="5">
+        <v>4.3010000000000002</v>
+      </c>
+      <c r="H12" s="6">
+        <f>ABS(D12-((F12+G12)/2))/((F12+G12)/2)</f>
+        <v>5.1806249274014503E-4</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="0"/>
+        <v>1.1149999999999771E-3</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="4">
+        <v>2</v>
+      </c>
+      <c r="C13" s="4">
+        <v>70</v>
+      </c>
+      <c r="D13" s="4">
+        <v>4.3010599999999997</v>
+      </c>
+      <c r="E13" s="4">
+        <f>445.871*2</f>
+        <v>891.74199999999996</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="6">
+        <f>ABS(D13-((F12+G12)/2))/((F12+G12)/2)</f>
+        <v>7.9916366593107946E-4</v>
+      </c>
+      <c r="I13" s="4">
+        <f>H13*((F12+G12)/2)/2</f>
+        <v>1.7200000000001658E-3</v>
+      </c>
+      <c r="J13" s="5"/>
+      <c r="K13" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+      <c r="B14" s="4">
+        <v>3</v>
+      </c>
+      <c r="C14" s="4">
+        <v>70</v>
+      </c>
+      <c r="D14" s="4">
+        <v>4.3117999999999999</v>
+      </c>
+      <c r="E14" s="4">
+        <f>446.985*2</f>
+        <v>893.97</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="6">
+        <f>ABS(D14-((F12+G12)/2))/((F12+G12)/2)</f>
+        <v>1.6958996399116884E-3</v>
+      </c>
+      <c r="I14" s="4">
+        <f>H14*((F12+G12)/2)/2</f>
+        <v>3.6499999999999311E-3</v>
+      </c>
+      <c r="J14" s="5"/>
+      <c r="K14" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
+      <c r="B15" s="4">
+        <v>4</v>
+      </c>
+      <c r="C15" s="4">
+        <v>70</v>
+      </c>
+      <c r="D15" s="4">
+        <v>4.3164899999999999</v>
+      </c>
+      <c r="E15" s="4">
+        <f>447.471*2</f>
+        <v>894.94200000000001</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="6">
+        <f>ABS(D15-((F12+G12)/2))/((F12+G12)/2)</f>
+        <v>2.7854570798001963E-3</v>
+      </c>
+      <c r="I15" s="4">
+        <f>H15*((F12+G12)/2)/2</f>
+        <v>5.9949999999999726E-3</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="K15" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+      <c r="B16" s="4">
+        <v>5</v>
+      </c>
+      <c r="C16" s="4">
+        <v>70</v>
+      </c>
+      <c r="D16" s="4">
+        <v>4.3146300000000002</v>
+      </c>
+      <c r="E16" s="4">
+        <f>447.278*2</f>
+        <v>894.55600000000004</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="6">
+        <f>ABS(D16-((F12+G12)/2))/((F12+G12)/2)</f>
+        <v>2.3533511441515146E-3</v>
+      </c>
+      <c r="I16" s="4">
+        <f>H16*((F12+G12)/2)/2</f>
+        <v>5.0650000000000972E-3</v>
+      </c>
+      <c r="J16" s="5"/>
+      <c r="K16" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="4">
+        <v>1</v>
+      </c>
+      <c r="C17" s="4">
+        <v>70</v>
+      </c>
+      <c r="D17" s="4">
+        <v>4.6529999999999996</v>
+      </c>
+      <c r="E17" s="4">
+        <f>482.335*2</f>
+        <v>964.67</v>
+      </c>
+      <c r="F17" s="5">
+        <f>2.326*2</f>
+        <v>4.6520000000000001</v>
+      </c>
+      <c r="G17" s="5">
+        <v>4.6749999999999998</v>
+      </c>
+      <c r="H17" s="6">
+        <f>ABS(D17-((F17+G17)/2))/((F17+G17)/2)</f>
+        <v>2.2515278224510341E-3</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="0"/>
+        <v>5.250000000000199E-3</v>
+      </c>
+      <c r="J17" s="5"/>
+      <c r="K17" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="4">
+        <v>2</v>
+      </c>
+      <c r="C18" s="4">
+        <v>70</v>
+      </c>
+      <c r="D18" s="4">
+        <v>4.66751</v>
+      </c>
+      <c r="E18" s="4">
+        <f>483.859*2</f>
+        <v>967.71799999999996</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="6">
+        <f>ABS(D18-((F17+G17)/2))/((F17+G17)/2)</f>
+        <v>8.5986919695509143E-4</v>
+      </c>
+      <c r="I18" s="4">
+        <f>H18*((F17+G17)/2)/2</f>
+        <v>2.0050000000000345E-3</v>
+      </c>
+      <c r="J18" s="5"/>
+      <c r="K18" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
+      <c r="B19" s="4">
+        <v>3</v>
+      </c>
+      <c r="C19" s="4">
+        <v>70</v>
+      </c>
+      <c r="D19" s="4">
+        <v>4.6585599999999996</v>
+      </c>
+      <c r="E19" s="4">
+        <f>482.932*2</f>
+        <v>965.86400000000003</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="6">
+        <f>ABS(D19-((F17+G17)/2))/((F17+G17)/2)</f>
+        <v>1.0592902326579583E-3</v>
+      </c>
+      <c r="I19" s="4">
+        <f>H19*((F17+G17)/2)/2</f>
+        <v>2.4700000000001943E-3</v>
+      </c>
+      <c r="J19" s="5"/>
+      <c r="K19" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
+      <c r="B20" s="4">
+        <v>4</v>
+      </c>
+      <c r="C20" s="4">
+        <v>70</v>
+      </c>
+      <c r="D20" s="4">
+        <v>4.6465300000000003</v>
+      </c>
+      <c r="E20" s="4">
+        <f>481.648*2</f>
+        <v>963.29600000000005</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="6">
+        <f>ABS(D20-((F17+G17)/2))/((F17+G17)/2)</f>
+        <v>3.6388978235230422E-3</v>
+      </c>
+      <c r="I20" s="4">
+        <f>H20*((F17+G17)/2)/2</f>
+        <v>8.4849999999998538E-3</v>
+      </c>
+      <c r="J20" s="5"/>
+      <c r="K20" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+      <c r="B21" s="4">
+        <v>5</v>
+      </c>
+      <c r="C21" s="4">
+        <v>70</v>
+      </c>
+      <c r="D21" s="4">
+        <v>4.6440599999999996</v>
+      </c>
+      <c r="E21" s="4">
+        <f>481.428*2</f>
+        <v>962.85599999999999</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="6">
+        <f>ABS(D21-((F17+G17)/2))/((F17+G17)/2)</f>
+        <v>4.168542939852117E-3</v>
+      </c>
+      <c r="I21" s="4">
+        <f>H21*((F17+G17)/2)/2</f>
+        <v>9.7200000000001747E-3</v>
+      </c>
+      <c r="J21" s="5"/>
+      <c r="K21" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="F17:F21"/>
+    <mergeCell ref="G17:G21"/>
+    <mergeCell ref="J2:J21"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="F2:F6"/>
+    <mergeCell ref="G2:G6"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="F7:F11"/>
+    <mergeCell ref="G7:G11"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="F12:F16"/>
+    <mergeCell ref="G12:G16"/>
+    <mergeCell ref="A12:A16"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/pic/test/实验数据.xlsx
+++ b/pic/test/实验数据.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20364"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A35274-6C69-4E4F-B9D6-2089D2E21962}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD94126B-7F10-4949-A54C-85236BB605D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="60">
   <si>
     <t>图片</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -227,6 +228,30 @@
   </si>
   <si>
     <t>误差毫米数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件人工测量值/mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26--1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>误差/mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 26--2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>89--1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>92--1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -273,13 +298,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -287,6 +309,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -571,7 +602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="B38" sqref="B38:E38"/>
     </sheetView>
   </sheetViews>
@@ -734,35 +765,35 @@
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -1153,18 +1184,18 @@
       <c r="A19" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
       <c r="O19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1178,18 +1209,18 @@
       <c r="A20" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
       <c r="O20">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1800,8 +1831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17D99E07-5EBB-4816-8069-D1B9D986B7B7}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K21"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1819,700 +1850,700 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>100</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>3.4937100000000001</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <f>362.177*2</f>
         <v>724.35400000000004</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="7">
         <f>1.751*2</f>
         <v>3.5019999999999998</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="7">
         <v>3.5049999999999999</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="5">
         <f>ABS(D2-((F2+G2)/2))/((F2+G2)/2)</f>
         <v>2.7943485086341499E-3</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="3">
         <f>H2*((F2+G2)/2)/2</f>
         <v>4.8949999999998717E-3</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="7">
         <v>4.8232099999999997E-3</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
-      <c r="B3" s="4">
+      <c r="A3" s="7"/>
+      <c r="B3" s="3">
         <v>2</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>100</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>3.4931399999999999</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <f>362.118*2</f>
         <v>724.23599999999999</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="6">
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="5">
         <f>ABS(D3-((F2+G2)/2))/((F2+G2)/2)</f>
         <v>2.9570429570429358E-3</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <f>H3*((F2+G2)/2)/2</f>
         <v>5.1799999999999624E-3</v>
       </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="4">
+      <c r="J3" s="7"/>
+      <c r="K3" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
-      <c r="B4" s="4">
+      <c r="A4" s="7"/>
+      <c r="B4" s="3">
         <v>3</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>100</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>3.5057100000000001</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <f>363.421*2</f>
         <v>726.84199999999998</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="6">
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="5">
         <f>ABS(D4-((F2+G2)/2))/((F2+G2)/2)</f>
         <v>6.3079777365499282E-4</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <f>H4*((F2+G2)/2)/2</f>
         <v>1.1050000000001337E-3</v>
       </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="4">
+      <c r="J4" s="7"/>
+      <c r="K4" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
-      <c r="B5" s="4">
+      <c r="A5" s="7"/>
+      <c r="B5" s="3">
         <v>4</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>100</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>3.4962800000000001</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <f>362.443*2</f>
         <v>724.88599999999997</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="6">
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="5">
         <f>ABS(D5-((F2+G2)/2))/((F2+G2)/2)</f>
         <v>2.06079634651057E-3</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <f>H5*((F2+G2)/2)/2</f>
         <v>3.6099999999998906E-3</v>
       </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="4">
+      <c r="J5" s="7"/>
+      <c r="K5" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
-      <c r="B6" s="4">
+      <c r="A6" s="7"/>
+      <c r="B6" s="3">
         <v>5</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>90</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>3.50169</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <f>363.004*2</f>
         <v>726.00800000000004</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="6">
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="5">
         <f>ABS(D6-((F2+G2)/2))/((F2+G2)/2)</f>
         <v>5.1662623091190739E-4</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <f>H6*((F2+G2)/2)/2</f>
         <v>9.0499999999993374E-4</v>
       </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="4">
+      <c r="J6" s="7"/>
+      <c r="K6" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>1</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>90</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>3.5087100000000002</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <f>363.732*2</f>
         <v>727.46400000000006</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="7">
         <f>1.752*2</f>
         <v>3.504</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="7">
         <v>3.4889999999999999</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <f>ABS(D7-((F7+G7)/2))/((F7+G7)/2)</f>
         <v>3.4920634920635072E-3</v>
       </c>
-      <c r="I7" s="4">
-        <f t="shared" ref="I3:I21" si="0">H7*((F7+G7)/2)/2</f>
+      <c r="I7" s="3">
+        <f t="shared" ref="I7:I17" si="0">H7*((F7+G7)/2)/2</f>
         <v>6.1050000000000271E-3</v>
       </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="4">
+      <c r="J7" s="7"/>
+      <c r="K7" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="4">
+      <c r="A8" s="7"/>
+      <c r="B8" s="3">
         <v>2</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>90</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>3.5020899999999999</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <f>363.064*2</f>
         <v>726.12800000000004</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="6">
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="5">
         <f>ABS(D8-((F7+G7)/2))/((F7+G7)/2)</f>
         <v>1.5987415987415306E-3</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="3">
         <f>H8*((F7+G7)/2)/2</f>
         <v>2.7949999999998809E-3</v>
       </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="4">
+      <c r="J8" s="7"/>
+      <c r="K8" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="4">
+      <c r="A9" s="7"/>
+      <c r="B9" s="3">
         <v>3</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>90</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>3.5027900000000001</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <f>363.118*2</f>
         <v>726.23599999999999</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="6">
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="5">
         <f>ABS(D9-((F7+G7)/2))/((F7+G7)/2)</f>
         <v>1.7989417989417722E-3</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <f>H9*((F7+G7)/2)/2</f>
         <v>3.1449999999999534E-3</v>
       </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="4">
+      <c r="J9" s="7"/>
+      <c r="K9" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="4">
+      <c r="A10" s="7"/>
+      <c r="B10" s="3">
         <v>4</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>90</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>3.504</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <f>363.243*2</f>
         <v>726.48599999999999</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="6">
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="5">
         <f>ABS(D10-((F7+G7)/2))/((F7+G7)/2)</f>
         <v>2.1450021450020993E-3</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="3">
         <f>H10*((F7+G7)/2)/2</f>
         <v>3.7499999999999205E-3</v>
       </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="4">
+      <c r="J10" s="7"/>
+      <c r="K10" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="4">
+      <c r="A11" s="7"/>
+      <c r="B11" s="3">
         <v>5</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>90</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>3.4996</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <f>362.778*2</f>
         <v>725.55600000000004</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="6">
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="5">
         <f>ABS(D11-((F7+G7)/2))/((F7+G7)/2)</f>
         <v>8.8660088660085239E-4</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="3">
         <f>H11*((F7+G7)/2)/2</f>
         <v>1.5499999999999403E-3</v>
       </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="4">
+      <c r="J11" s="7"/>
+      <c r="K11" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>1</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>70</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>4.3067299999999999</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <f>446.459*2</f>
         <v>892.91800000000001</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="7">
         <f>2.154*2</f>
         <v>4.3079999999999998</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="7">
         <v>4.3010000000000002</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="5">
         <f>ABS(D12-((F12+G12)/2))/((F12+G12)/2)</f>
         <v>5.1806249274014503E-4</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="3">
         <f t="shared" si="0"/>
         <v>1.1149999999999771E-3</v>
       </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="4">
+      <c r="J12" s="7"/>
+      <c r="K12" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="4">
+      <c r="A13" s="7"/>
+      <c r="B13" s="3">
         <v>2</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>70</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>4.3010599999999997</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <f>445.871*2</f>
         <v>891.74199999999996</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="6">
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="5">
         <f>ABS(D13-((F12+G12)/2))/((F12+G12)/2)</f>
         <v>7.9916366593107946E-4</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="3">
         <f>H13*((F12+G12)/2)/2</f>
         <v>1.7200000000001658E-3</v>
       </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="4">
+      <c r="J13" s="7"/>
+      <c r="K13" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="4">
+      <c r="A14" s="7"/>
+      <c r="B14" s="3">
         <v>3</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>70</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>4.3117999999999999</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <f>446.985*2</f>
         <v>893.97</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="6">
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="5">
         <f>ABS(D14-((F12+G12)/2))/((F12+G12)/2)</f>
         <v>1.6958996399116884E-3</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="3">
         <f>H14*((F12+G12)/2)/2</f>
         <v>3.6499999999999311E-3</v>
       </c>
-      <c r="J14" s="5"/>
-      <c r="K14" s="4">
+      <c r="J14" s="7"/>
+      <c r="K14" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="4">
+      <c r="A15" s="7"/>
+      <c r="B15" s="3">
         <v>4</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>70</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>4.3164899999999999</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <f>447.471*2</f>
         <v>894.94200000000001</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="6">
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="5">
         <f>ABS(D15-((F12+G12)/2))/((F12+G12)/2)</f>
         <v>2.7854570798001963E-3</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="3">
         <f>H15*((F12+G12)/2)/2</f>
         <v>5.9949999999999726E-3</v>
       </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="4">
+      <c r="J15" s="7"/>
+      <c r="K15" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
-      <c r="B16" s="4">
+      <c r="A16" s="7"/>
+      <c r="B16" s="3">
         <v>5</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>70</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>4.3146300000000002</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <f>447.278*2</f>
         <v>894.55600000000004</v>
       </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="6">
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="5">
         <f>ABS(D16-((F12+G12)/2))/((F12+G12)/2)</f>
         <v>2.3533511441515146E-3</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="3">
         <f>H16*((F12+G12)/2)/2</f>
         <v>5.0650000000000972E-3</v>
       </c>
-      <c r="J16" s="5"/>
-      <c r="K16" s="4">
+      <c r="J16" s="7"/>
+      <c r="K16" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>1</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>70</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <v>4.6529999999999996</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
         <f>482.335*2</f>
         <v>964.67</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="7">
         <f>2.326*2</f>
         <v>4.6520000000000001</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="7">
         <v>4.6749999999999998</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="5">
         <f>ABS(D17-((F17+G17)/2))/((F17+G17)/2)</f>
         <v>2.2515278224510341E-3</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="3">
         <f t="shared" si="0"/>
         <v>5.250000000000199E-3</v>
       </c>
-      <c r="J17" s="5"/>
-      <c r="K17" s="4">
+      <c r="J17" s="7"/>
+      <c r="K17" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="4">
+      <c r="A18" s="7"/>
+      <c r="B18" s="3">
         <v>2</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>70</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <v>4.66751</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="3">
         <f>483.859*2</f>
         <v>967.71799999999996</v>
       </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="6">
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="5">
         <f>ABS(D18-((F17+G17)/2))/((F17+G17)/2)</f>
         <v>8.5986919695509143E-4</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="3">
         <f>H18*((F17+G17)/2)/2</f>
         <v>2.0050000000000345E-3</v>
       </c>
-      <c r="J18" s="5"/>
-      <c r="K18" s="4">
+      <c r="J18" s="7"/>
+      <c r="K18" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
-      <c r="B19" s="4">
+      <c r="A19" s="7"/>
+      <c r="B19" s="3">
         <v>3</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>70</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <v>4.6585599999999996</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <f>482.932*2</f>
         <v>965.86400000000003</v>
       </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="6">
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="5">
         <f>ABS(D19-((F17+G17)/2))/((F17+G17)/2)</f>
         <v>1.0592902326579583E-3</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="3">
         <f>H19*((F17+G17)/2)/2</f>
         <v>2.4700000000001943E-3</v>
       </c>
-      <c r="J19" s="5"/>
-      <c r="K19" s="4">
+      <c r="J19" s="7"/>
+      <c r="K19" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
-      <c r="B20" s="4">
+      <c r="A20" s="7"/>
+      <c r="B20" s="3">
         <v>4</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>70</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <v>4.6465300000000003</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="3">
         <f>481.648*2</f>
         <v>963.29600000000005</v>
       </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="6">
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="5">
         <f>ABS(D20-((F17+G17)/2))/((F17+G17)/2)</f>
         <v>3.6388978235230422E-3</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="3">
         <f>H20*((F17+G17)/2)/2</f>
         <v>8.4849999999998538E-3</v>
       </c>
-      <c r="J20" s="5"/>
-      <c r="K20" s="4">
+      <c r="J20" s="7"/>
+      <c r="K20" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
-      <c r="B21" s="4">
+      <c r="A21" s="7"/>
+      <c r="B21" s="3">
         <v>5</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>70</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <v>4.6440599999999996</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <f>481.428*2</f>
         <v>962.85599999999999</v>
       </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="6">
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="5">
         <f>ABS(D21-((F17+G17)/2))/((F17+G17)/2)</f>
         <v>4.168542939852117E-3</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="3">
         <f>H21*((F17+G17)/2)/2</f>
         <v>9.7200000000001747E-3</v>
       </c>
-      <c r="J21" s="5"/>
-      <c r="K21" s="4">
+      <c r="J21" s="7"/>
+      <c r="K21" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="4"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="6"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="6"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -2534,4 +2565,397 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9CE0515-86C6-4CB1-AAA0-9AB4C91F98BC}">
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>3.5062500000000001</v>
+      </c>
+      <c r="D2" s="7">
+        <v>3.4980000000000002</v>
+      </c>
+      <c r="E2" s="4">
+        <f>ABS(C2-D2)</f>
+        <v>8.2499999999998685E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="8"/>
+      <c r="B3" s="4">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4">
+        <v>3.5077600000000002</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="4">
+        <f>ABS(C3-D2)</f>
+        <v>9.7599999999999909E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="8"/>
+      <c r="B4" s="4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4">
+        <v>3.5032000000000001</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="4">
+        <f>ABS(C4-D2)</f>
+        <v>5.1999999999998714E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="8"/>
+      <c r="B5" s="4">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4">
+        <v>3.5051299999999999</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="4">
+        <f>ABS(C5-D2)</f>
+        <v>7.1299999999996366E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="8"/>
+      <c r="B6" s="4">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4">
+        <v>3.5046200000000001</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="4">
+        <f>ABS(C6-D2)</f>
+        <v>6.6199999999998482E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4">
+        <v>3.50623</v>
+      </c>
+      <c r="D7" s="7">
+        <v>3.5059999999999998</v>
+      </c>
+      <c r="E7" s="4">
+        <f>ABS(C7-D7)</f>
+        <v>2.3000000000017451E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="7"/>
+      <c r="B8" s="4">
+        <v>2</v>
+      </c>
+      <c r="C8" s="4">
+        <v>3.5104099999999998</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="4">
+        <f>ABS(C8-D7)</f>
+        <v>4.410000000000025E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="7"/>
+      <c r="B9" s="4">
+        <v>3</v>
+      </c>
+      <c r="C9" s="4">
+        <v>3.5125099999999998</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="4">
+        <f>ABS(C9-D7)</f>
+        <v>6.5100000000000158E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="7"/>
+      <c r="B10" s="4">
+        <v>4</v>
+      </c>
+      <c r="C10" s="4">
+        <v>3.5115400000000001</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="4">
+        <f>ABS(C10-D7)</f>
+        <v>5.5400000000003224E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="7"/>
+      <c r="B11" s="4">
+        <v>5</v>
+      </c>
+      <c r="C11" s="4">
+        <v>3.5092099999999999</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="4">
+        <f>ABS(C11-D7)</f>
+        <v>3.2100000000001572E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4">
+        <v>4.3120099999999999</v>
+      </c>
+      <c r="D12" s="7">
+        <v>4.3</v>
+      </c>
+      <c r="E12" s="4">
+        <f>ABS(C12-D12)</f>
+        <v>1.2010000000000076E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="7"/>
+      <c r="B13" s="4">
+        <v>2</v>
+      </c>
+      <c r="C13" s="4">
+        <v>4.3159299999999998</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="4">
+        <f>ABS(C13-D12)</f>
+        <v>1.593E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="7"/>
+      <c r="B14" s="4">
+        <v>3</v>
+      </c>
+      <c r="C14" s="4">
+        <v>4.3179400000000001</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="4">
+        <f>ABS(C14-D12)</f>
+        <v>1.7940000000000289E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="7"/>
+      <c r="B15" s="4">
+        <v>4</v>
+      </c>
+      <c r="C15" s="4">
+        <v>4.3250900000000003</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="4">
+        <f>ABS(C15-D12)</f>
+        <v>2.5090000000000501E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="7"/>
+      <c r="B16" s="4">
+        <v>5</v>
+      </c>
+      <c r="C16" s="4">
+        <v>4.3128299999999999</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="4">
+        <f>ABS(C16-D12)</f>
+        <v>1.2830000000000119E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="4">
+        <v>1</v>
+      </c>
+      <c r="C17" s="4">
+        <v>4.6650299999999998</v>
+      </c>
+      <c r="D17" s="7">
+        <v>4.6520000000000001</v>
+      </c>
+      <c r="E17" s="4">
+        <f>ABS(C17-D17)</f>
+        <v>1.3029999999999653E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="7"/>
+      <c r="B18" s="4">
+        <v>2</v>
+      </c>
+      <c r="C18" s="4">
+        <v>4.6663100000000002</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="4">
+        <f>ABS(C18-D17)</f>
+        <v>1.4310000000000045E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="7"/>
+      <c r="B19" s="4">
+        <v>3</v>
+      </c>
+      <c r="C19" s="4">
+        <v>4.6663800000000002</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="4">
+        <f>ABS(C19-D17)</f>
+        <v>1.4380000000000059E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="7"/>
+      <c r="B20" s="4">
+        <v>4</v>
+      </c>
+      <c r="C20" s="4">
+        <v>4.6575300000000004</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="4">
+        <f>ABS(C20-D17)</f>
+        <v>5.5300000000002569E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="7"/>
+      <c r="B21" s="4">
+        <v>5</v>
+      </c>
+      <c r="C21" s="4">
+        <v>4.6561899999999996</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="4">
+        <f>ABS(C21-D17)</f>
+        <v>4.1899999999994719E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="D7:D11"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="A12:A16"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/pic/test/实验数据.xlsx
+++ b/pic/test/实验数据.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20364"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD94126B-7F10-4949-A54C-85236BB605D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB26BD3-754B-4E02-8BE5-EB690FFAFC9E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="68">
   <si>
     <t>图片</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -252,6 +252,38 @@
   </si>
   <si>
     <t>92--1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26--2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复误差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>横向误差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>横向偏移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纵向误差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>误差平均mm/mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -298,7 +330,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -309,6 +341,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -765,35 +800,35 @@
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -1184,18 +1219,18 @@
       <c r="A19" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
       <c r="O19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1209,18 +1244,18 @@
       <c r="A20" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
       <c r="O20">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1885,7 +1920,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>47</v>
       </c>
       <c r="B2" s="3">
@@ -1901,11 +1936,11 @@
         <f>362.177*2</f>
         <v>724.35400000000004</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="8">
         <f>1.751*2</f>
         <v>3.5019999999999998</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="8">
         <v>3.5049999999999999</v>
       </c>
       <c r="H2" s="5">
@@ -1916,7 +1951,7 @@
         <f>H2*((F2+G2)/2)/2</f>
         <v>4.8949999999998717E-3</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="8">
         <v>4.8232099999999997E-3</v>
       </c>
       <c r="K2" s="3">
@@ -1924,7 +1959,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="3">
         <v>2</v>
       </c>
@@ -1938,8 +1973,8 @@
         <f>362.118*2</f>
         <v>724.23599999999999</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
       <c r="H3" s="5">
         <f>ABS(D3-((F2+G2)/2))/((F2+G2)/2)</f>
         <v>2.9570429570429358E-3</v>
@@ -1948,13 +1983,13 @@
         <f>H3*((F2+G2)/2)/2</f>
         <v>5.1799999999999624E-3</v>
       </c>
-      <c r="J3" s="7"/>
+      <c r="J3" s="8"/>
       <c r="K3" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="3">
         <v>3</v>
       </c>
@@ -1968,8 +2003,8 @@
         <f>363.421*2</f>
         <v>726.84199999999998</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
       <c r="H4" s="5">
         <f>ABS(D4-((F2+G2)/2))/((F2+G2)/2)</f>
         <v>6.3079777365499282E-4</v>
@@ -1978,13 +2013,13 @@
         <f>H4*((F2+G2)/2)/2</f>
         <v>1.1050000000001337E-3</v>
       </c>
-      <c r="J4" s="7"/>
+      <c r="J4" s="8"/>
       <c r="K4" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="3">
         <v>4</v>
       </c>
@@ -1998,8 +2033,8 @@
         <f>362.443*2</f>
         <v>724.88599999999997</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="5">
         <f>ABS(D5-((F2+G2)/2))/((F2+G2)/2)</f>
         <v>2.06079634651057E-3</v>
@@ -2008,13 +2043,13 @@
         <f>H5*((F2+G2)/2)/2</f>
         <v>3.6099999999998906E-3</v>
       </c>
-      <c r="J5" s="7"/>
+      <c r="J5" s="8"/>
       <c r="K5" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="3">
         <v>5</v>
       </c>
@@ -2028,8 +2063,8 @@
         <f>363.004*2</f>
         <v>726.00800000000004</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="5">
         <f>ABS(D6-((F2+G2)/2))/((F2+G2)/2)</f>
         <v>5.1662623091190739E-4</v>
@@ -2038,13 +2073,13 @@
         <f>H6*((F2+G2)/2)/2</f>
         <v>9.0499999999993374E-4</v>
       </c>
-      <c r="J6" s="7"/>
+      <c r="J6" s="8"/>
       <c r="K6" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="8" t="s">
         <v>50</v>
       </c>
       <c r="B7" s="3">
@@ -2060,11 +2095,11 @@
         <f>363.732*2</f>
         <v>727.46400000000006</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="8">
         <f>1.752*2</f>
         <v>3.504</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="8">
         <v>3.4889999999999999</v>
       </c>
       <c r="H7" s="5">
@@ -2075,13 +2110,13 @@
         <f t="shared" ref="I7:I17" si="0">H7*((F7+G7)/2)/2</f>
         <v>6.1050000000000271E-3</v>
       </c>
-      <c r="J7" s="7"/>
+      <c r="J7" s="8"/>
       <c r="K7" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
+      <c r="A8" s="8"/>
       <c r="B8" s="3">
         <v>2</v>
       </c>
@@ -2095,8 +2130,8 @@
         <f>363.064*2</f>
         <v>726.12800000000004</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
       <c r="H8" s="5">
         <f>ABS(D8-((F7+G7)/2))/((F7+G7)/2)</f>
         <v>1.5987415987415306E-3</v>
@@ -2105,13 +2140,13 @@
         <f>H8*((F7+G7)/2)/2</f>
         <v>2.7949999999998809E-3</v>
       </c>
-      <c r="J8" s="7"/>
+      <c r="J8" s="8"/>
       <c r="K8" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
+      <c r="A9" s="8"/>
       <c r="B9" s="3">
         <v>3</v>
       </c>
@@ -2125,8 +2160,8 @@
         <f>363.118*2</f>
         <v>726.23599999999999</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
       <c r="H9" s="5">
         <f>ABS(D9-((F7+G7)/2))/((F7+G7)/2)</f>
         <v>1.7989417989417722E-3</v>
@@ -2135,13 +2170,13 @@
         <f>H9*((F7+G7)/2)/2</f>
         <v>3.1449999999999534E-3</v>
       </c>
-      <c r="J9" s="7"/>
+      <c r="J9" s="8"/>
       <c r="K9" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
+      <c r="A10" s="8"/>
       <c r="B10" s="3">
         <v>4</v>
       </c>
@@ -2155,8 +2190,8 @@
         <f>363.243*2</f>
         <v>726.48599999999999</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
       <c r="H10" s="5">
         <f>ABS(D10-((F7+G7)/2))/((F7+G7)/2)</f>
         <v>2.1450021450020993E-3</v>
@@ -2165,13 +2200,13 @@
         <f>H10*((F7+G7)/2)/2</f>
         <v>3.7499999999999205E-3</v>
       </c>
-      <c r="J10" s="7"/>
+      <c r="J10" s="8"/>
       <c r="K10" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
+      <c r="A11" s="8"/>
       <c r="B11" s="3">
         <v>5</v>
       </c>
@@ -2185,8 +2220,8 @@
         <f>362.778*2</f>
         <v>725.55600000000004</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
       <c r="H11" s="5">
         <f>ABS(D11-((F7+G7)/2))/((F7+G7)/2)</f>
         <v>8.8660088660085239E-4</v>
@@ -2195,13 +2230,13 @@
         <f>H11*((F7+G7)/2)/2</f>
         <v>1.5499999999999403E-3</v>
       </c>
-      <c r="J11" s="7"/>
+      <c r="J11" s="8"/>
       <c r="K11" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="8" t="s">
         <v>51</v>
       </c>
       <c r="B12" s="3">
@@ -2217,11 +2252,11 @@
         <f>446.459*2</f>
         <v>892.91800000000001</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="8">
         <f>2.154*2</f>
         <v>4.3079999999999998</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="8">
         <v>4.3010000000000002</v>
       </c>
       <c r="H12" s="5">
@@ -2232,13 +2267,13 @@
         <f t="shared" si="0"/>
         <v>1.1149999999999771E-3</v>
       </c>
-      <c r="J12" s="7"/>
+      <c r="J12" s="8"/>
       <c r="K12" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
+      <c r="A13" s="8"/>
       <c r="B13" s="3">
         <v>2</v>
       </c>
@@ -2252,8 +2287,8 @@
         <f>445.871*2</f>
         <v>891.74199999999996</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
       <c r="H13" s="5">
         <f>ABS(D13-((F12+G12)/2))/((F12+G12)/2)</f>
         <v>7.9916366593107946E-4</v>
@@ -2262,13 +2297,13 @@
         <f>H13*((F12+G12)/2)/2</f>
         <v>1.7200000000001658E-3</v>
       </c>
-      <c r="J13" s="7"/>
+      <c r="J13" s="8"/>
       <c r="K13" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
+      <c r="A14" s="8"/>
       <c r="B14" s="3">
         <v>3</v>
       </c>
@@ -2282,8 +2317,8 @@
         <f>446.985*2</f>
         <v>893.97</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
       <c r="H14" s="5">
         <f>ABS(D14-((F12+G12)/2))/((F12+G12)/2)</f>
         <v>1.6958996399116884E-3</v>
@@ -2292,13 +2327,13 @@
         <f>H14*((F12+G12)/2)/2</f>
         <v>3.6499999999999311E-3</v>
       </c>
-      <c r="J14" s="7"/>
+      <c r="J14" s="8"/>
       <c r="K14" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
+      <c r="A15" s="8"/>
       <c r="B15" s="3">
         <v>4</v>
       </c>
@@ -2312,8 +2347,8 @@
         <f>447.471*2</f>
         <v>894.94200000000001</v>
       </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
       <c r="H15" s="5">
         <f>ABS(D15-((F12+G12)/2))/((F12+G12)/2)</f>
         <v>2.7854570798001963E-3</v>
@@ -2322,13 +2357,13 @@
         <f>H15*((F12+G12)/2)/2</f>
         <v>5.9949999999999726E-3</v>
       </c>
-      <c r="J15" s="7"/>
+      <c r="J15" s="8"/>
       <c r="K15" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
+      <c r="A16" s="8"/>
       <c r="B16" s="3">
         <v>5</v>
       </c>
@@ -2342,8 +2377,8 @@
         <f>447.278*2</f>
         <v>894.55600000000004</v>
       </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
       <c r="H16" s="5">
         <f>ABS(D16-((F12+G12)/2))/((F12+G12)/2)</f>
         <v>2.3533511441515146E-3</v>
@@ -2352,13 +2387,13 @@
         <f>H16*((F12+G12)/2)/2</f>
         <v>5.0650000000000972E-3</v>
       </c>
-      <c r="J16" s="7"/>
+      <c r="J16" s="8"/>
       <c r="K16" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="8" t="s">
         <v>52</v>
       </c>
       <c r="B17" s="3">
@@ -2374,11 +2409,11 @@
         <f>482.335*2</f>
         <v>964.67</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="8">
         <f>2.326*2</f>
         <v>4.6520000000000001</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="8">
         <v>4.6749999999999998</v>
       </c>
       <c r="H17" s="5">
@@ -2389,13 +2424,13 @@
         <f t="shared" si="0"/>
         <v>5.250000000000199E-3</v>
       </c>
-      <c r="J17" s="7"/>
+      <c r="J17" s="8"/>
       <c r="K17" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
+      <c r="A18" s="8"/>
       <c r="B18" s="3">
         <v>2</v>
       </c>
@@ -2409,8 +2444,8 @@
         <f>483.859*2</f>
         <v>967.71799999999996</v>
       </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
       <c r="H18" s="5">
         <f>ABS(D18-((F17+G17)/2))/((F17+G17)/2)</f>
         <v>8.5986919695509143E-4</v>
@@ -2419,13 +2454,13 @@
         <f>H18*((F17+G17)/2)/2</f>
         <v>2.0050000000000345E-3</v>
       </c>
-      <c r="J18" s="7"/>
+      <c r="J18" s="8"/>
       <c r="K18" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
+      <c r="A19" s="8"/>
       <c r="B19" s="3">
         <v>3</v>
       </c>
@@ -2439,8 +2474,8 @@
         <f>482.932*2</f>
         <v>965.86400000000003</v>
       </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
       <c r="H19" s="5">
         <f>ABS(D19-((F17+G17)/2))/((F17+G17)/2)</f>
         <v>1.0592902326579583E-3</v>
@@ -2449,13 +2484,13 @@
         <f>H19*((F17+G17)/2)/2</f>
         <v>2.4700000000001943E-3</v>
       </c>
-      <c r="J19" s="7"/>
+      <c r="J19" s="8"/>
       <c r="K19" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
+      <c r="A20" s="8"/>
       <c r="B20" s="3">
         <v>4</v>
       </c>
@@ -2469,8 +2504,8 @@
         <f>481.648*2</f>
         <v>963.29600000000005</v>
       </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
       <c r="H20" s="5">
         <f>ABS(D20-((F17+G17)/2))/((F17+G17)/2)</f>
         <v>3.6388978235230422E-3</v>
@@ -2479,13 +2514,13 @@
         <f>H20*((F17+G17)/2)/2</f>
         <v>8.4849999999998538E-3</v>
       </c>
-      <c r="J20" s="7"/>
+      <c r="J20" s="8"/>
       <c r="K20" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
+      <c r="A21" s="8"/>
       <c r="B21" s="3">
         <v>5</v>
       </c>
@@ -2499,8 +2534,8 @@
         <f>481.428*2</f>
         <v>962.85599999999999</v>
       </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
       <c r="H21" s="5">
         <f>ABS(D21-((F17+G17)/2))/((F17+G17)/2)</f>
         <v>4.168542939852117E-3</v>
@@ -2509,7 +2544,7 @@
         <f>H21*((F17+G17)/2)/2</f>
         <v>9.7200000000001747E-3</v>
       </c>
-      <c r="J21" s="7"/>
+      <c r="J21" s="8"/>
       <c r="K21" s="3">
         <v>6</v>
       </c>
@@ -2569,14 +2604,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9CE0515-86C6-4CB1-AAA0-9AB4C91F98BC}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="16.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -2599,7 +2635,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>55</v>
       </c>
       <c r="B2" s="4">
@@ -2608,7 +2644,7 @@
       <c r="C2" s="4">
         <v>3.5062500000000001</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="8">
         <v>3.4980000000000002</v>
       </c>
       <c r="E2" s="4">
@@ -2617,63 +2653,63 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="4">
         <v>2</v>
       </c>
       <c r="C3" s="4">
         <v>3.5077600000000002</v>
       </c>
-      <c r="D3" s="7"/>
+      <c r="D3" s="8"/>
       <c r="E3" s="4">
         <f>ABS(C3-D2)</f>
         <v>9.7599999999999909E-3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="4">
         <v>3</v>
       </c>
       <c r="C4" s="4">
         <v>3.5032000000000001</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="8"/>
       <c r="E4" s="4">
         <f>ABS(C4-D2)</f>
         <v>5.1999999999998714E-3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="4">
         <v>4</v>
       </c>
       <c r="C5" s="4">
         <v>3.5051299999999999</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="8"/>
       <c r="E5" s="4">
         <f>ABS(C5-D2)</f>
         <v>7.1299999999996366E-3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="4">
         <v>5</v>
       </c>
       <c r="C6" s="4">
         <v>3.5046200000000001</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="8"/>
       <c r="E6" s="4">
         <f>ABS(C6-D2)</f>
         <v>6.6199999999998482E-3</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B7" s="4">
@@ -2682,7 +2718,7 @@
       <c r="C7" s="4">
         <v>3.50623</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="8">
         <v>3.5059999999999998</v>
       </c>
       <c r="E7" s="4">
@@ -2691,63 +2727,63 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
+      <c r="A8" s="8"/>
       <c r="B8" s="4">
         <v>2</v>
       </c>
       <c r="C8" s="4">
         <v>3.5104099999999998</v>
       </c>
-      <c r="D8" s="7"/>
+      <c r="D8" s="8"/>
       <c r="E8" s="4">
         <f>ABS(C8-D7)</f>
         <v>4.410000000000025E-3</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
+      <c r="A9" s="8"/>
       <c r="B9" s="4">
         <v>3</v>
       </c>
       <c r="C9" s="4">
         <v>3.5125099999999998</v>
       </c>
-      <c r="D9" s="7"/>
+      <c r="D9" s="8"/>
       <c r="E9" s="4">
         <f>ABS(C9-D7)</f>
         <v>6.5100000000000158E-3</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
+      <c r="A10" s="8"/>
       <c r="B10" s="4">
         <v>4</v>
       </c>
       <c r="C10" s="4">
         <v>3.5115400000000001</v>
       </c>
-      <c r="D10" s="7"/>
+      <c r="D10" s="8"/>
       <c r="E10" s="4">
         <f>ABS(C10-D7)</f>
         <v>5.5400000000003224E-3</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
+      <c r="A11" s="8"/>
       <c r="B11" s="4">
         <v>5</v>
       </c>
       <c r="C11" s="4">
         <v>3.5092099999999999</v>
       </c>
-      <c r="D11" s="7"/>
+      <c r="D11" s="8"/>
       <c r="E11" s="4">
         <f>ABS(C11-D7)</f>
         <v>3.2100000000001572E-3</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="8" t="s">
         <v>58</v>
       </c>
       <c r="B12" s="4">
@@ -2756,7 +2792,7 @@
       <c r="C12" s="4">
         <v>4.3120099999999999</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="8">
         <v>4.3</v>
       </c>
       <c r="E12" s="4">
@@ -2765,63 +2801,63 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
+      <c r="A13" s="8"/>
       <c r="B13" s="4">
         <v>2</v>
       </c>
       <c r="C13" s="4">
         <v>4.3159299999999998</v>
       </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="8"/>
       <c r="E13" s="4">
         <f>ABS(C13-D12)</f>
         <v>1.593E-2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
+      <c r="A14" s="8"/>
       <c r="B14" s="4">
         <v>3</v>
       </c>
       <c r="C14" s="4">
         <v>4.3179400000000001</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="8"/>
       <c r="E14" s="4">
         <f>ABS(C14-D12)</f>
         <v>1.7940000000000289E-2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
+      <c r="A15" s="8"/>
       <c r="B15" s="4">
         <v>4</v>
       </c>
       <c r="C15" s="4">
         <v>4.3250900000000003</v>
       </c>
-      <c r="D15" s="7"/>
+      <c r="D15" s="8"/>
       <c r="E15" s="4">
         <f>ABS(C15-D12)</f>
         <v>2.5090000000000501E-2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
+      <c r="A16" s="8"/>
       <c r="B16" s="4">
         <v>5</v>
       </c>
       <c r="C16" s="4">
         <v>4.3128299999999999</v>
       </c>
-      <c r="D16" s="7"/>
+      <c r="D16" s="8"/>
       <c r="E16" s="4">
         <f>ABS(C16-D12)</f>
         <v>1.2830000000000119E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
         <v>59</v>
       </c>
       <c r="B17" s="4">
@@ -2830,7 +2866,7 @@
       <c r="C17" s="4">
         <v>4.6650299999999998</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="8">
         <v>4.6520000000000001</v>
       </c>
       <c r="E17" s="4">
@@ -2838,110 +2874,731 @@
         <v>1.3029999999999653E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="8"/>
       <c r="B18" s="4">
         <v>2</v>
       </c>
       <c r="C18" s="4">
         <v>4.6663100000000002</v>
       </c>
-      <c r="D18" s="7"/>
+      <c r="D18" s="8"/>
       <c r="E18" s="4">
         <f>ABS(C18-D17)</f>
         <v>1.4310000000000045E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="8"/>
       <c r="B19" s="4">
         <v>3</v>
       </c>
       <c r="C19" s="4">
         <v>4.6663800000000002</v>
       </c>
-      <c r="D19" s="7"/>
+      <c r="D19" s="8"/>
       <c r="E19" s="4">
         <f>ABS(C19-D17)</f>
         <v>1.4380000000000059E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="8"/>
       <c r="B20" s="4">
         <v>4</v>
       </c>
       <c r="C20" s="4">
         <v>4.6575300000000004</v>
       </c>
-      <c r="D20" s="7"/>
+      <c r="D20" s="8"/>
       <c r="E20" s="4">
         <f>ABS(C20-D17)</f>
         <v>5.5300000000002569E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="8"/>
       <c r="B21" s="4">
         <v>5</v>
       </c>
       <c r="C21" s="4">
         <v>4.6561899999999996</v>
       </c>
-      <c r="D21" s="7"/>
+      <c r="D21" s="8"/>
       <c r="E21" s="4">
         <f>ABS(C21-D17)</f>
         <v>4.1899999999994719E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="6">
+        <v>1</v>
+      </c>
+      <c r="C23" s="4">
+        <v>3.5196800000000001</v>
+      </c>
+      <c r="D23" s="4">
+        <v>3.52</v>
+      </c>
+      <c r="E23" s="4">
+        <v>105</v>
+      </c>
+      <c r="F23" s="6">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <f>ABS(C23-D23)</f>
+        <v>3.1999999999987594E-4</v>
+      </c>
+      <c r="H23" s="6">
+        <v>0</v>
+      </c>
+      <c r="I23" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B24" s="6">
+        <v>2</v>
+      </c>
+      <c r="C24" s="4">
+        <v>3.52006</v>
+      </c>
+      <c r="D24" s="6">
+        <v>3.52</v>
+      </c>
+      <c r="E24" s="6">
+        <v>105</v>
+      </c>
+      <c r="F24" s="6">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <f t="shared" ref="G24:G27" si="0">ABS(C24-D24)</f>
+        <v>5.9999999999948983E-5</v>
+      </c>
+      <c r="H24" s="6">
+        <v>0</v>
+      </c>
+      <c r="I24" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="6">
+        <v>3</v>
+      </c>
+      <c r="C25" s="4">
+        <v>3.5175399999999999</v>
+      </c>
+      <c r="D25" s="6">
+        <v>3.52</v>
+      </c>
+      <c r="E25" s="6">
+        <v>105</v>
+      </c>
+      <c r="F25" s="6">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>2.4600000000001288E-3</v>
+      </c>
+      <c r="H25" s="6">
+        <v>0</v>
+      </c>
+      <c r="I25" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B26" s="6">
+        <v>4</v>
+      </c>
+      <c r="C26" s="4">
+        <v>3.5206200000000001</v>
+      </c>
+      <c r="D26" s="6">
+        <v>3.52</v>
+      </c>
+      <c r="E26" s="6">
+        <v>105</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>6.2000000000006494E-4</v>
+      </c>
+      <c r="H26" s="6">
+        <v>0</v>
+      </c>
+      <c r="I26" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B27" s="6">
+        <v>5</v>
+      </c>
+      <c r="C27" s="4">
+        <v>3.52095</v>
+      </c>
+      <c r="D27" s="6">
+        <v>3.52</v>
+      </c>
+      <c r="E27" s="6">
+        <v>105</v>
+      </c>
+      <c r="F27" s="6">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>9.5000000000000639E-4</v>
+      </c>
+      <c r="H27" s="6">
+        <v>0</v>
+      </c>
+      <c r="I27" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
+      <c r="B28" s="6">
+        <v>1</v>
+      </c>
+      <c r="C28" s="4">
+        <v>3.5024999999999999</v>
+      </c>
+      <c r="D28" s="6">
+        <v>3.52</v>
+      </c>
+      <c r="E28" s="4">
+        <v>106</v>
+      </c>
+      <c r="F28" s="6">
+        <v>0</v>
+      </c>
+      <c r="H28" s="6">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <f>ABS(C28-D28)</f>
+        <v>1.7500000000000071E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B29" s="6">
+        <v>2</v>
+      </c>
+      <c r="C29" s="6">
+        <v>3.5028199999999998</v>
+      </c>
+      <c r="D29" s="6">
+        <v>3.52</v>
+      </c>
+      <c r="E29" s="6">
+        <v>106</v>
+      </c>
+      <c r="F29" s="6">
+        <v>0</v>
+      </c>
+      <c r="H29" s="6">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <f t="shared" ref="I29:I37" si="1">ABS(C29-D29)</f>
+        <v>1.7180000000000195E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B30" s="6">
+        <v>3</v>
+      </c>
+      <c r="C30" s="6">
+        <v>3.5024600000000001</v>
+      </c>
+      <c r="D30" s="6">
+        <v>3.52</v>
+      </c>
+      <c r="E30" s="6">
+        <v>106</v>
+      </c>
+      <c r="F30" s="6">
+        <v>0</v>
+      </c>
+      <c r="H30" s="6">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="1"/>
+        <v>1.7539999999999889E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B31" s="6">
+        <v>4</v>
+      </c>
+      <c r="C31" s="6">
+        <v>3.5058199999999999</v>
+      </c>
+      <c r="D31" s="6">
+        <v>3.52</v>
+      </c>
+      <c r="E31" s="6">
+        <v>106</v>
+      </c>
+      <c r="F31" s="6">
+        <v>0</v>
+      </c>
+      <c r="H31" s="6">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="1"/>
+        <v>1.4180000000000081E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B32" s="6">
+        <v>5</v>
+      </c>
+      <c r="C32" s="6">
+        <v>3.5019900000000002</v>
+      </c>
+      <c r="D32" s="6">
+        <v>3.52</v>
+      </c>
+      <c r="E32" s="6">
+        <v>106</v>
+      </c>
+      <c r="F32" s="6">
+        <v>0</v>
+      </c>
+      <c r="H32" s="6">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="1"/>
+        <v>1.8009999999999859E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B33" s="6">
+        <v>1</v>
+      </c>
+      <c r="C33" s="6">
+        <v>3.53023</v>
+      </c>
+      <c r="D33" s="6">
+        <v>3.52</v>
+      </c>
+      <c r="E33" s="6">
+        <v>104</v>
+      </c>
+      <c r="F33" s="6">
+        <v>0</v>
+      </c>
+      <c r="H33" s="6">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="1"/>
+        <v>1.0229999999999961E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B34" s="6">
+        <v>2</v>
+      </c>
+      <c r="C34" s="6">
+        <v>3.5342099999999999</v>
+      </c>
+      <c r="D34" s="6">
+        <v>3.52</v>
+      </c>
+      <c r="E34" s="6">
+        <v>104</v>
+      </c>
+      <c r="F34" s="6">
+        <v>0</v>
+      </c>
+      <c r="H34" s="6">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="1"/>
+        <v>1.4209999999999834E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B35" s="6">
+        <v>3</v>
+      </c>
+      <c r="C35" s="6">
+        <v>3.53573</v>
+      </c>
+      <c r="D35" s="6">
+        <v>3.52</v>
+      </c>
+      <c r="E35" s="6">
+        <v>104</v>
+      </c>
+      <c r="F35" s="6">
+        <v>0</v>
+      </c>
+      <c r="H35" s="6">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="1"/>
+        <v>1.5730000000000022E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B36" s="6">
+        <v>4</v>
+      </c>
+      <c r="C36" s="6">
+        <v>3.5333299999999999</v>
+      </c>
+      <c r="D36" s="6">
+        <v>3.52</v>
+      </c>
+      <c r="E36" s="6">
+        <v>104</v>
+      </c>
+      <c r="F36" s="6">
+        <v>0</v>
+      </c>
+      <c r="H36" s="6">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="1"/>
+        <v>1.3329999999999842E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B37" s="6">
+        <v>5</v>
+      </c>
+      <c r="C37" s="6">
+        <v>3.5293899999999998</v>
+      </c>
+      <c r="D37" s="6">
+        <v>3.52</v>
+      </c>
+      <c r="E37" s="6">
+        <v>104</v>
+      </c>
+      <c r="F37" s="6">
+        <v>0</v>
+      </c>
+      <c r="H37" s="6">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="1"/>
+        <v>9.3899999999997874E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B38" s="6">
+        <v>1</v>
+      </c>
+      <c r="C38" s="6">
+        <v>3.51898</v>
+      </c>
+      <c r="D38" s="6">
+        <v>3.52</v>
+      </c>
+      <c r="E38" s="6">
+        <v>105</v>
+      </c>
+      <c r="F38" s="6">
+        <v>-1</v>
+      </c>
+      <c r="H38" s="6">
+        <f>ABS(C38-D38)</f>
+        <v>1.0200000000000209E-3</v>
+      </c>
+      <c r="I38" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B39" s="6">
+        <v>2</v>
+      </c>
+      <c r="C39" s="6">
+        <v>3.5130400000000002</v>
+      </c>
+      <c r="D39" s="6">
+        <v>3.52</v>
+      </c>
+      <c r="E39" s="6">
+        <v>105</v>
+      </c>
+      <c r="F39" s="6">
+        <v>-1</v>
+      </c>
+      <c r="H39" s="6">
+        <f t="shared" ref="H39:H47" si="2">ABS(C39-D39)</f>
+        <v>6.9599999999998552E-3</v>
+      </c>
+      <c r="I39" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B40" s="6">
+        <v>3</v>
+      </c>
+      <c r="C40" s="6">
+        <v>3.5175399999999999</v>
+      </c>
+      <c r="D40" s="6">
+        <v>3.52</v>
+      </c>
+      <c r="E40" s="6">
+        <v>105</v>
+      </c>
+      <c r="F40" s="6">
+        <v>-1</v>
+      </c>
+      <c r="H40" s="6">
+        <f t="shared" si="2"/>
+        <v>2.4600000000001288E-3</v>
+      </c>
+      <c r="I40" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B41" s="6">
+        <v>4</v>
+      </c>
+      <c r="C41" s="6">
+        <v>3.5116200000000002</v>
+      </c>
+      <c r="D41" s="6">
+        <v>3.52</v>
+      </c>
+      <c r="E41" s="6">
+        <v>105</v>
+      </c>
+      <c r="F41" s="6">
+        <v>-1</v>
+      </c>
+      <c r="H41" s="6">
+        <f t="shared" si="2"/>
+        <v>8.379999999999832E-3</v>
+      </c>
+      <c r="I41" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B42" s="6">
+        <v>5</v>
+      </c>
+      <c r="C42" s="6">
+        <v>3.5135999999999998</v>
+      </c>
+      <c r="D42" s="6">
+        <v>3.52</v>
+      </c>
+      <c r="E42" s="6">
+        <v>105</v>
+      </c>
+      <c r="F42" s="6">
+        <v>-1</v>
+      </c>
+      <c r="H42" s="6">
+        <f t="shared" si="2"/>
+        <v>6.4000000000001833E-3</v>
+      </c>
+      <c r="I42" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B43" s="6">
+        <v>1</v>
+      </c>
+      <c r="C43" s="6">
+        <v>3.5153400000000001</v>
+      </c>
+      <c r="D43" s="6">
+        <v>3.52</v>
+      </c>
+      <c r="E43" s="6">
+        <v>105</v>
+      </c>
+      <c r="F43" s="6">
+        <v>1</v>
+      </c>
+      <c r="H43" s="6">
+        <f t="shared" si="2"/>
+        <v>4.6599999999998865E-3</v>
+      </c>
+      <c r="I43" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B44" s="6">
+        <v>2</v>
+      </c>
+      <c r="C44" s="6">
+        <v>3.5143499999999999</v>
+      </c>
+      <c r="D44" s="6">
+        <v>3.52</v>
+      </c>
+      <c r="E44" s="6">
+        <v>105</v>
+      </c>
+      <c r="F44" s="6">
+        <v>1</v>
+      </c>
+      <c r="H44" s="6">
+        <f t="shared" si="2"/>
+        <v>5.6500000000001549E-3</v>
+      </c>
+      <c r="I44" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B45" s="6">
+        <v>3</v>
+      </c>
+      <c r="C45" s="6">
+        <v>3.5149599999999999</v>
+      </c>
+      <c r="D45" s="6">
+        <v>3.52</v>
+      </c>
+      <c r="E45" s="6">
+        <v>105</v>
+      </c>
+      <c r="F45" s="6">
+        <v>1</v>
+      </c>
+      <c r="H45" s="6">
+        <f t="shared" si="2"/>
+        <v>5.0400000000001555E-3</v>
+      </c>
+      <c r="I45" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B46" s="6">
+        <v>4</v>
+      </c>
+      <c r="C46" s="6">
+        <v>3.5145599999999999</v>
+      </c>
+      <c r="D46" s="6">
+        <v>3.52</v>
+      </c>
+      <c r="E46" s="6">
+        <v>105</v>
+      </c>
+      <c r="F46" s="6">
+        <v>1</v>
+      </c>
+      <c r="H46" s="6">
+        <f t="shared" si="2"/>
+        <v>5.4400000000001114E-3</v>
+      </c>
+      <c r="I46" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B47" s="6">
+        <v>5</v>
+      </c>
+      <c r="C47" s="6">
+        <v>3.51057</v>
+      </c>
+      <c r="D47" s="6">
+        <v>3.52</v>
+      </c>
+      <c r="E47" s="6">
+        <v>105</v>
+      </c>
+      <c r="F47" s="6">
+        <v>1</v>
+      </c>
+      <c r="H47" s="6">
+        <f t="shared" si="2"/>
+        <v>9.4300000000000495E-3</v>
+      </c>
+      <c r="I47" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>66</v>
+      </c>
+      <c r="H48" s="6">
+        <f>SUM(H38:H47)</f>
+        <v>5.5440000000000378E-2</v>
+      </c>
+      <c r="I48">
+        <f>SUM(I28:I37)</f>
+        <v>0.14729999999999954</v>
+      </c>
+    </row>
+    <row r="49" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J49" t="s">
+        <v>67</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
